--- a/2015-2016/clases/computacion_aplicada_2/evaluacion.xlsx
+++ b/2015-2016/clases/computacion_aplicada_2/evaluacion.xlsx
@@ -379,8 +379,8 @@
   </sheetPr>
   <dimension ref="B4:N33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -476,9 +476,11 @@
       <c r="C8" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="4" t="e">
+      <c r="N8" s="4" t="inlineStr">
         <f aca="false">AVERAGE(D8:M8)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -536,6 +538,9 @@
       <c r="D12" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="E12" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="N12" s="4" t="n">
         <f aca="false">AVERAGE(D12:M12)*15/10</f>
         <v>15</v>
@@ -578,9 +583,11 @@
       <c r="C15" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="4" t="e">
+      <c r="N15" s="4" t="inlineStr">
         <f aca="false">AVERAGE(D15:M15)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -620,9 +627,11 @@
       <c r="C18" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="N18" s="4" t="e">
+      <c r="N18" s="4" t="inlineStr">
         <f aca="false">AVERAGE(D18:M18)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -665,9 +674,12 @@
       <c r="D21" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="E21" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="N21" s="4" t="n">
         <f aca="false">AVERAGE(D21:M21)*15/10</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -725,9 +737,11 @@
       <c r="C25" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="N25" s="4" t="e">
+      <c r="N25" s="4" t="inlineStr">
         <f aca="false">AVERAGE(D25:M25)*15/10</f>
-        <v>#DIV/0!</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/2015-2016/clases/computacion_aplicada_2/evaluacion.xlsx
+++ b/2015-2016/clases/computacion_aplicada_2/evaluacion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="practicas_laboratorio" sheetId="1" r:id="rId1"/>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,6 +835,9 @@
       <c r="D9">
         <v>10</v>
       </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
       <c r="F9">
         <v>10</v>
       </c>
@@ -861,7 +864,7 @@
       </c>
       <c r="O9" s="4">
         <f t="shared" si="0"/>
-        <v>8.1818181818181817</v>
+        <v>9.0909090909090917</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
@@ -1807,7 +1810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
